--- a/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
+++ b/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubuas.sharepoint.com/sites/TNOBachelorAppliedDataScienceAIBUas/Shared Documents/General/02 Appendices/Appendix 13 Assessments Rubrics Year 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramh\Documents\GitHub\AAI-DM\docs\Year1\BlockD\MS Assignment Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="11_03746045E4F30D67E4D3283C82E484B242FC1AB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8FF219B-6E45-4F64-BC67-420105FA54A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA54226-8787-49A8-809E-2B19D1B58E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Self-Assessment" sheetId="6" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Student Number</t>
   </si>
   <si>
-    <t>Municipality of Breda - Improve Breda</t>
-  </si>
-  <si>
     <t>GRADE</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>2021-22D FGA1.P1-ADSAI</t>
   </si>
   <si>
     <t>Opportunity</t>
@@ -856,12 +850,18 @@
   <si>
     <t>OOP</t>
   </si>
+  <si>
+    <t>2022-23D FGA1.P1-ADSAI</t>
+  </si>
+  <si>
+    <t>Municipality of Breda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -984,12 +984,6 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -1045,6 +1039,11 @@
       <b/>
       <sz val="10"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1839,10 +1838,10 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,13 +1857,13 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
@@ -1897,177 +1896,218 @@
     <xf numFmtId="0" fontId="19" fillId="49" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="51" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="52" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2098,91 +2138,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2194,15 +2199,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2839,12 +2838,12 @@
   </sheetPr>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="39" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="39" customWidth="1"/>
@@ -2862,7 +2861,7 @@
     <col min="17" max="16384" width="14.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.95" customHeight="1">
+    <row r="1" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2880,14 +2879,14 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="23.45">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2900,11 +2899,11 @@
       <c r="O2" s="18"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1">
+    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="204"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2914,135 +2913,135 @@
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="205"/>
-      <c r="L3" s="158" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="12.95" customHeight="1">
+    <row r="4" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="156"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="210" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="164" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="165">
+      <c r="M4" s="184">
         <f>IF(ROUND((N29/10),1)&lt;&gt;ROUND((N29/10),0),ROUND((N29/10),1),ROUND((N29/10),0))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="166" t="str">
+      <c r="N4" s="185" t="str">
         <f>IF(M4&gt;=5.5,"PASS",IF(M4&gt;0,"FAIL","M/O"))</f>
         <v>M/O</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="12.95" customHeight="1">
+    <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="159" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="205"/>
+      <c r="C5" s="179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="177"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="177"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" ht="13.9">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="159" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="167"/>
+      <c r="C6" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="186"/>
       <c r="E6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="205"/>
+        <v>243</v>
+      </c>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
       <c r="O6" s="18"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="13.9">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="159" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="205"/>
+      <c r="C7" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="177"/>
       <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
       <c r="O7" s="18"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="28.35" customHeight="1">
+    <row r="8" spans="1:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="168" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="169"/>
+      <c r="C8" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="188"/>
       <c r="E8" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="205"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
       <c r="O8" s="18"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="13.9">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3060,7 +3059,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="13.9">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3078,14 +3077,14 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" ht="23.45">
+    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="202" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
+      <c r="C11" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -3098,97 +3097,97 @@
       <c r="O11" s="18"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="13.9">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="42"/>
       <c r="D12" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="I12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="J12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="K12" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="L12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="M12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="42" t="s">
+      <c r="N12" s="42" t="s">
         <v>23</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="42" t="s">
-        <v>25</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" ht="48.95" customHeight="1">
+    <row r="13" spans="1:16" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="151" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
+      <c r="C13" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
       <c r="N13" s="120"/>
       <c r="O13" s="28"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" ht="118.9" customHeight="1">
+    <row r="14" spans="1:16" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="154" t="s">
+      <c r="C14" s="167"/>
+      <c r="D14" s="170" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="170"/>
+      <c r="F14" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="57" t="s">
+      <c r="H14" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="I14" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="J14" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="K14" s="130" t="s">
         <v>32</v>
-      </c>
-      <c r="J14" s="129" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="130" t="s">
-        <v>34</v>
       </c>
       <c r="L14" s="41">
         <v>10</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N14" s="41">
         <f>IF(M14="MISSING",0,IF(M14="POOR",(L14*0.2),IF(M14="INSUFFICIENT",(L14*0.4),IF(M14="SUFFICIENT",(L14*0.6),IF(M14="GOOD",(L14*0.8),IF(M14="EXCELLENT",L14,"ERROR"))))))</f>
@@ -3197,37 +3196,37 @@
       <c r="O14" s="28"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" ht="105.95" customHeight="1">
+    <row r="15" spans="1:16" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="154" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="170" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="170"/>
+      <c r="F15" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="135" t="s">
+      <c r="I15" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="J15" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="136" t="s">
+      <c r="K15" s="138" t="s">
         <v>38</v>
-      </c>
-      <c r="J15" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="138" t="s">
-        <v>40</v>
       </c>
       <c r="L15" s="41">
         <v>10</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15" s="41">
         <v>0</v>
@@ -3235,37 +3234,37 @@
       <c r="O15" s="28"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" ht="116.45" customHeight="1">
+    <row r="16" spans="1:16" ht="116.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="154" t="s">
+      <c r="C16" s="167"/>
+      <c r="D16" s="170" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="126" t="s">
+      <c r="I16" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="J16" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="128" t="s">
+      <c r="K16" s="130" t="s">
         <v>44</v>
-      </c>
-      <c r="J16" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="130" t="s">
-        <v>46</v>
       </c>
       <c r="L16" s="41">
         <v>10</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N16" s="41">
         <f>IF(M16="MISSING",0,IF(M16="POOR",(L16*0.2),IF(M16="INSUFFICIENT",(L16*0.4),IF(M16="SUFFICIENT",(L16*0.6),IF(M16="GOOD",(L16*0.8),IF(M16="EXCELLENT",L16,"ERROR"))))))</f>
@@ -3274,37 +3273,37 @@
       <c r="O16" s="28"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="118.15" customHeight="1">
+    <row r="17" spans="1:16" ht="118.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="154" t="s">
+      <c r="C17" s="167"/>
+      <c r="D17" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="170"/>
+      <c r="F17" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="126" t="s">
+      <c r="I17" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="J17" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="128" t="s">
+      <c r="K17" s="130" t="s">
         <v>50</v>
-      </c>
-      <c r="J17" s="129" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="130" t="s">
-        <v>52</v>
       </c>
       <c r="L17" s="41">
         <v>10</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" s="41">
         <f>IF(M17="MISSING",0,IF(M17="POOR",(L17*0.2),IF(M17="INSUFFICIENT",(L17*0.4),IF(M17="SUFFICIENT",(L17*0.6),IF(M17="GOOD",(L17*0.8),IF(M17="EXCELLENT",L17,"ERROR"))))))</f>
@@ -3313,59 +3312,59 @@
       <c r="O17" s="28"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="48.6" customHeight="1">
+    <row r="18" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
+      <c r="C18" s="166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
       <c r="L18" s="121"/>
       <c r="M18" s="121"/>
       <c r="N18" s="121"/>
       <c r="O18" s="28"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="118.7" customHeight="1">
+    <row r="19" spans="1:16" ht="118.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="155" t="s">
+      <c r="C19" s="166"/>
+      <c r="D19" s="193" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="193"/>
+      <c r="F19" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="155"/>
-      <c r="F19" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="50" t="s">
+      <c r="I19" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="51" t="s">
+      <c r="J19" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="K19" s="54" t="s">
         <v>58</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="K19" s="54" t="s">
-        <v>60</v>
       </c>
       <c r="L19" s="41">
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N19" s="41">
         <f>IF(M19="MISSING",0,IF(M19="POOR",(L19*0.2),IF(M19="INSUFFICIENT",(L19*0.4),IF(M19="SUFFICIENT",(L19*0.6),IF(M19="GOOD",(L19*0.8),IF(M19="EXCELLENT",L19,"ERROR"))))))</f>
@@ -3374,59 +3373,59 @@
       <c r="O19" s="28"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1">
+    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="146" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
+      <c r="C20" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="168" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="28"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1">
+    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="149" t="s">
+      <c r="C21" s="166"/>
+      <c r="D21" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="190"/>
+      <c r="F21" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="150"/>
-      <c r="F21" s="57" t="s">
+      <c r="H21" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="I21" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="51" t="s">
+      <c r="J21" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="K21" s="54" t="s">
         <v>67</v>
-      </c>
-      <c r="J21" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="54" t="s">
-        <v>69</v>
       </c>
       <c r="L21" s="41">
         <v>10</v>
       </c>
       <c r="M21" s="124" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="41">
         <f>IF(M21="MISSING",0,IF(M21="POOR",(L21*0.2),IF(M21="INSUFFICIENT",(L21*0.4),IF(M21="SUFFICIENT",(L21*0.6),IF(M21="GOOD",(L21*0.8),IF(M21="EXCELLENT",L21,"ERROR"))))))</f>
@@ -3435,59 +3434,59 @@
       <c r="O21" s="28"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="48" customHeight="1">
+    <row r="22" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="146" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
+      <c r="C22" s="166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="169"/>
       <c r="L22" s="122"/>
       <c r="M22" s="122"/>
       <c r="N22" s="122"/>
       <c r="O22" s="28"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" ht="108" customHeight="1">
+    <row r="23" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="154" t="s">
+      <c r="C23" s="166"/>
+      <c r="D23" s="170" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="171"/>
+      <c r="F23" s="139" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="139" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="140" t="s">
+      <c r="I23" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="127" t="s">
+      <c r="J23" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="I23" s="128" t="s">
+      <c r="K23" s="130" t="s">
         <v>75</v>
-      </c>
-      <c r="J23" s="129" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="130" t="s">
-        <v>77</v>
       </c>
       <c r="L23" s="41">
         <v>10</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N23" s="41">
         <f>IF(M23="MISSING",0,IF(M23="POOR",(L23*0.2),IF(M23="INSUFFICIENT",(L23*0.4),IF(M23="SUFFICIENT",(L23*0.6),IF(M23="GOOD",(L23*0.8),IF(M23="EXCELLENT",L23,"ERROR"))))))</f>
@@ -3496,59 +3495,59 @@
       <c r="O23" s="28"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" ht="42.95" customHeight="1">
+    <row r="24" spans="1:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="151" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="171" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
+      <c r="C24" s="167" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="172" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="28"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1">
+    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="172" t="s">
+      <c r="C25" s="156"/>
+      <c r="D25" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="173"/>
+      <c r="F25" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="172"/>
-      <c r="F25" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="141" t="s">
+      <c r="I25" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="127" t="s">
+      <c r="J25" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="128" t="s">
+      <c r="K25" s="130" t="s">
         <v>83</v>
-      </c>
-      <c r="J25" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="130" t="s">
-        <v>85</v>
       </c>
       <c r="L25" s="41">
         <v>10</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" s="41">
         <f>IF(M25="MISSING",0,IF(M25="POOR",(L25*0.2),IF(M25="INSUFFICIENT",(L25*0.4),IF(M25="SUFFICIENT",(L25*0.6),IF(M25="GOOD",(L25*0.8),IF(M25="EXCELLENT",L25,"ERROR"))))))</f>
@@ -3557,20 +3556,20 @@
       <c r="O25" s="55"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="1:16" ht="53.1" customHeight="1">
+    <row r="26" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="146" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="147" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
+      <c r="C26" s="166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="168" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
       <c r="J26" s="113"/>
       <c r="K26" s="113"/>
       <c r="L26" s="122"/>
@@ -3579,37 +3578,37 @@
       <c r="O26" s="28"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" ht="111" customHeight="1">
+    <row r="27" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="154" t="s">
+      <c r="C27" s="166"/>
+      <c r="D27" s="170" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="170"/>
+      <c r="F27" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="154"/>
-      <c r="F27" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="126" t="s">
+      <c r="I27" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="127" t="s">
+      <c r="J27" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="K27" s="130" t="s">
         <v>91</v>
-      </c>
-      <c r="J27" s="129" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="130" t="s">
-        <v>93</v>
       </c>
       <c r="L27" s="41">
         <v>10</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N27" s="41">
         <f>IF(M27="MISSING",0,IF(M27="POOR",(L27*0.2),IF(M27="INSUFFICIENT",(L27*0.4),IF(M27="SUFFICIENT",(L27*0.6),IF(M27="GOOD",(L27*0.8),IF(M27="EXCELLENT",L27,"ERROR"))))))</f>
@@ -3618,59 +3617,59 @@
       <c r="O27" s="28"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" ht="53.1" customHeight="1">
+    <row r="28" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="146" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
+      <c r="C28" s="166" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="174" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="174"/>
       <c r="L28" s="122"/>
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="28"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1">
+    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="154" t="s">
+      <c r="C29" s="166"/>
+      <c r="D29" s="170" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="170"/>
+      <c r="F29" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G29" s="126" t="s">
+      <c r="I29" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="127" t="s">
+      <c r="J29" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="I29" s="128" t="s">
+      <c r="K29" s="130" t="s">
         <v>99</v>
-      </c>
-      <c r="J29" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="130" t="s">
-        <v>101</v>
       </c>
       <c r="L29" s="41">
         <v>10</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="41">
         <f>IF(M29="MISSING",0,IF(M29="POOR",(L29*0.2),IF(M29="INSUFFICIENT",(L29*0.4),IF(M29="SUFFICIENT",(L29*0.6),IF(M29="GOOD",(L29*0.8),IF(M29="EXCELLENT",L29,"ERROR"))))))</f>
@@ -3679,7 +3678,7 @@
       <c r="O29" s="62"/>
       <c r="P29" s="60"/>
     </row>
-    <row r="30" spans="1:16" ht="35.85" customHeight="1">
+    <row r="30" spans="1:16" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="18"/>
@@ -3689,7 +3688,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
@@ -3698,7 +3697,7 @@
         <v>100</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N30" s="41">
         <f>SUM(N14:N29)</f>
@@ -3707,7 +3706,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" ht="17.45" customHeight="1">
+    <row r="31" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3725,7 +3724,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="32" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3743,14 +3742,14 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.45">
+    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="202" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
+      <c r="C33" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -3763,343 +3762,343 @@
       <c r="O33" s="30"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="34" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="29"/>
       <c r="C34" s="109" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="158" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="156"/>
+      <c r="F34" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="157" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="203"/>
-      <c r="F34" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="157" t="s">
+      <c r="G34" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
       <c r="L34" s="65"/>
       <c r="M34" s="109"/>
       <c r="N34" s="110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="29"/>
       <c r="C35" s="66">
         <v>9</v>
       </c>
-      <c r="D35" s="174" t="s">
+      <c r="D35" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="163"/>
+      <c r="F35" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="206"/>
-      <c r="F35" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="175" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
       <c r="N35" s="67">
         <v>3</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="29"/>
       <c r="C36" s="68">
         <v>10</v>
       </c>
-      <c r="D36" s="176" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="206"/>
+      <c r="D36" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="163"/>
       <c r="F36" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="175" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
+        <v>110</v>
+      </c>
+      <c r="G36" s="164" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
       <c r="N36" s="69">
         <v>3</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="29"/>
       <c r="C37" s="66">
         <v>11</v>
       </c>
-      <c r="D37" s="174" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="206"/>
+      <c r="D37" s="165" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="163"/>
       <c r="F37" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="175" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
+        <v>112</v>
+      </c>
+      <c r="G37" s="164" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="164"/>
+      <c r="L37" s="164"/>
+      <c r="M37" s="164"/>
       <c r="N37" s="67">
         <v>3</v>
       </c>
       <c r="O37" s="29"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="29"/>
       <c r="C38" s="70">
         <v>1</v>
       </c>
-      <c r="D38" s="177" t="s">
+      <c r="D38" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="146"/>
+      <c r="F38" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="177"/>
-      <c r="F38" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="178" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
       <c r="N38" s="71">
         <v>3</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="29"/>
       <c r="C39" s="72">
         <v>2</v>
       </c>
-      <c r="D39" s="179" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="207"/>
+      <c r="D39" s="149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="150"/>
       <c r="F39" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="180" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
+        <v>117</v>
+      </c>
+      <c r="G39" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
       <c r="N39" s="73">
         <v>3</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="29"/>
       <c r="C40" s="74">
         <v>3</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="153"/>
+      <c r="F40" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="208"/>
-      <c r="F40" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" s="178" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
       <c r="N40" s="75">
         <v>3</v>
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="29"/>
       <c r="C41" s="76">
         <v>4</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="150"/>
+      <c r="F41" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="207"/>
-      <c r="F41" s="114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="180" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
       <c r="N41" s="77">
         <v>3</v>
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="29"/>
       <c r="C42" s="70">
         <v>5</v>
       </c>
-      <c r="D42" s="177" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="209"/>
+      <c r="D42" s="146" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="147"/>
       <c r="F42" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="178" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="178"/>
-      <c r="M42" s="178"/>
+        <v>125</v>
+      </c>
+      <c r="G42" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
       <c r="N42" s="71">
         <v>3</v>
       </c>
       <c r="O42" s="29"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="29"/>
       <c r="C43" s="72">
         <v>6</v>
       </c>
-      <c r="D43" s="179" t="s">
+      <c r="D43" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="150"/>
+      <c r="F43" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="207"/>
-      <c r="F43" s="114" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
+      <c r="G43" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
       <c r="N43" s="73">
         <v>3</v>
       </c>
       <c r="O43" s="29"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="29"/>
       <c r="C44" s="74">
         <v>7</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="153"/>
+      <c r="F44" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="208"/>
-      <c r="F44" s="112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="178" t="s">
-        <v>133</v>
-      </c>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="178"/>
-      <c r="K44" s="178"/>
-      <c r="L44" s="178"/>
-      <c r="M44" s="178"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="148"/>
       <c r="N44" s="75">
         <v>3</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="29"/>
       <c r="C45" s="76">
         <v>8</v>
       </c>
-      <c r="D45" s="182" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="207"/>
+      <c r="D45" s="154" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="150"/>
       <c r="F45" s="114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="180" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
+        <v>132</v>
+      </c>
+      <c r="G45" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
       <c r="N45" s="77">
         <v>3</v>
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="46" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -4117,7 +4116,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="47" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4135,14 +4134,14 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.45">
+    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="202" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
+      <c r="C48" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
       <c r="F48" s="27"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -4155,163 +4154,163 @@
       <c r="O48" s="18"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="49" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="32"/>
       <c r="C49" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="115"/>
+      <c r="F49" s="157" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="115"/>
-      <c r="F49" s="186" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="157" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" s="203"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
+      <c r="N49" s="156"/>
       <c r="O49" s="18"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1">
+    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35">
         <v>1</v>
       </c>
       <c r="D50" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="117"/>
+      <c r="F50" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="117"/>
-      <c r="F50" s="183" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="184"/>
-      <c r="H50" s="184"/>
-      <c r="I50" s="184"/>
-      <c r="J50" s="183" t="s">
-        <v>142</v>
-      </c>
-      <c r="K50" s="184"/>
-      <c r="L50" s="184"/>
-      <c r="M50" s="184"/>
-      <c r="N50" s="184"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
       <c r="O50" s="18"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1">
+    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="34"/>
       <c r="C51" s="37">
         <v>2</v>
       </c>
       <c r="D51" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="116"/>
+      <c r="F51" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="116"/>
-      <c r="F51" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
-      <c r="I51" s="184"/>
-      <c r="J51" s="185" t="s">
-        <v>145</v>
-      </c>
-      <c r="K51" s="184"/>
-      <c r="L51" s="184"/>
-      <c r="M51" s="184"/>
-      <c r="N51" s="184"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="160"/>
+      <c r="N51" s="160"/>
       <c r="O51" s="18"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1">
+    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="34"/>
       <c r="C52" s="35">
         <v>3</v>
       </c>
       <c r="D52" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="117"/>
+      <c r="F52" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="117"/>
-      <c r="F52" s="183" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="184"/>
-      <c r="H52" s="184"/>
-      <c r="I52" s="184"/>
-      <c r="J52" s="183" t="s">
-        <v>148</v>
-      </c>
-      <c r="K52" s="184"/>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="184"/>
+      <c r="K52" s="160"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
       <c r="O52" s="18"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1">
+    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="34"/>
       <c r="C53" s="37">
         <v>4</v>
       </c>
       <c r="D53" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="116"/>
+      <c r="F53" s="161" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="160"/>
+      <c r="H53" s="160"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="116"/>
-      <c r="F53" s="185" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53" s="184"/>
-      <c r="H53" s="184"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="185" t="s">
-        <v>151</v>
-      </c>
-      <c r="K53" s="184"/>
-      <c r="L53" s="184"/>
-      <c r="M53" s="184"/>
-      <c r="N53" s="184"/>
+      <c r="K53" s="160"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="160"/>
+      <c r="N53" s="160"/>
       <c r="O53" s="18"/>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1">
+    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="34"/>
       <c r="C54" s="35">
         <v>5</v>
       </c>
       <c r="D54" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="117"/>
+      <c r="F54" s="159" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="160"/>
+      <c r="H54" s="160"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="159" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="117"/>
-      <c r="F54" s="183" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="184"/>
-      <c r="J54" s="183" t="s">
-        <v>154</v>
-      </c>
-      <c r="K54" s="184"/>
-      <c r="L54" s="184"/>
-      <c r="M54" s="184"/>
-      <c r="N54" s="184"/>
+      <c r="K54" s="160"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="160"/>
+      <c r="N54" s="160"/>
       <c r="O54" s="18"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="55" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4329,7 +4328,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="56" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4362,56 +4361,19 @@
     <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="F21:K21" name="Range1_2_1_6"/>
   </protectedRanges>
   <mergeCells count="77">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -4426,19 +4388,56 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
   </mergeCells>
   <conditionalFormatting sqref="N4">
     <cfRule type="containsText" dxfId="46" priority="94" operator="containsText" text="FAIL">
@@ -4634,11 +4633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F364E9-2EB7-5940-933A-B5F5600966F3}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="78"/>
     <col min="2" max="2" width="23.85546875" style="78" customWidth="1"/>
@@ -4651,50 +4650,50 @@
     <col min="9" max="16384" width="8.85546875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="193" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="196"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="198"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="191" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="192"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="201" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="203"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="204"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="199" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="200"/>
       <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="188" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
+      <c r="D3" s="196" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
+      <c r="K3" s="194"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
       <c r="O3" s="100"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="99"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
@@ -4714,25 +4713,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.45">
+    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="D5" s="94" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G5" s="93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="91"/>
       <c r="D6" s="90"/>
       <c r="E6" s="89"/>
@@ -4740,278 +4739,278 @@
       <c r="G6" s="89"/>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105">
         <v>1</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105">
         <v>2</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="132" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G8" s="107"/>
       <c r="H8" s="107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="133">
         <v>3</v>
       </c>
       <c r="B9" s="134" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" s="133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" s="144" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F10" s="145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="144"/>
       <c r="H10" s="144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="102">
         <v>5</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="102"/>
       <c r="H11" s="102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="102">
         <v>6</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="102">
         <v>7</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="101"/>
     </row>
-    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="102">
         <v>8</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" s="101"/>
     </row>
-    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>9</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H15" s="85"/>
     </row>
-    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>10</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H16" s="85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83">
         <v>11</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5034,42 +5033,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="26.45">
+    <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
+        <v>168</v>
+      </c>
+      <c r="B2" s="209" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="13.9">
+    </row>
+    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="119"/>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -5089,7 +5088,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="13.9">
+    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -5109,35 +5108,35 @@
       <c r="S4" s="2"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="184.9">
-      <c r="B5" s="199" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+    <row r="5" spans="1:20" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
       <c r="F5" s="10">
         <v>6.1</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="N5" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M5,M6)</f>
@@ -5165,28 +5164,28 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="105.6">
+    <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B6" s="119"/>
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -5196,35 +5195,35 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="79.900000000000006">
-      <c r="B7" s="199" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+    <row r="7" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="207" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
       <c r="F7" s="10">
         <v>6.2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="M7" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="N7" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M7,M8)</f>
@@ -5252,30 +5251,30 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="66.599999999999994">
-      <c r="B8" s="199" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
+    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="207" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -5285,7 +5284,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="13.15">
+    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
@@ -5293,7 +5292,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:20" ht="13.15">
+    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
@@ -5302,7 +5301,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="13.15">
+    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
@@ -5311,7 +5310,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="13.15">
+    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
@@ -5320,57 +5319,57 @@
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="13.9">
-      <c r="B13" s="200"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
+    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="208"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="M13" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="L13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="207" t="s">
         <v>210</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="70.5" customHeight="1">
-      <c r="B14" s="199" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
       <c r="F14" s="10">
         <v>3.1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="N14" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M14,M15)</f>
@@ -5397,31 +5396,31 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="66.75" customHeight="1">
+    <row r="15" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="G15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="13.15">
+    </row>
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -5430,7 +5429,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="13.15">
+    <row r="17" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -5439,33 +5438,33 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="251.45">
-      <c r="B18" s="199" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
+    <row r="18" spans="2:19" ht="255" x14ac:dyDescent="0.2">
+      <c r="B18" s="207" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
       <c r="F18" s="10">
         <v>3.2</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="N18" s="4" t="e">
         <f ca="1">_xludf.CONCAT(M18,M19)</f>
@@ -5492,22 +5491,22 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="132">
+    <row r="19" spans="2:19" ht="127.5" x14ac:dyDescent="0.2">
       <c r="G19" s="10"/>
       <c r="H19" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="13.15">
+    <row r="20" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -5516,7 +5515,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:19" ht="13.15">
+    <row r="21" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5525,7 +5524,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:19" ht="13.15">
+    <row r="22" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -5534,57 +5533,57 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="24" spans="2:19" ht="13.15">
+    <row r="24" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H24" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="10" t="s">
+      <c r="M24" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K24" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="L24" s="10" t="s">
+    </row>
+    <row r="25" spans="2:19" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="G25" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" ht="290.45">
-      <c r="B25" s="200" t="s">
+      <c r="H25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
-      <c r="G25" s="10" t="s">
+      <c r="I25" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L25" s="2" t="s">
+    </row>
+    <row r="26" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G26" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="13.15">
-      <c r="G26" s="10" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5604,6 +5603,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB06FA0A2AD4DA488583749EC2534234" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="886b513cfe8a01d235b598bb5d9e3280">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60348849-ecd6-40c5-8069-7b4f665118aa" xmlns:ns3="d3efc331-58f4-463c-b792-81d907c25a2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea6c152a0770c3b66e26597cca1a51d2" ns2:_="" ns3:_="">
     <xsd:import namespace="60348849-ecd6-40c5-8069-7b4f665118aa"/>
@@ -5820,29 +5834,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA8CA2F-1DC9-4462-8B83-EF7474A9E105}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA8CA2F-1DC9-4462-8B83-EF7474A9E105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="60348849-ecd6-40c5-8069-7b4f665118aa"/>
+    <ds:schemaRef ds:uri="d3efc331-58f4-463c-b792-81d907c25a2d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
+++ b/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramh\Documents\GitHub\AAI-DM\docs\Year1\BlockD\MS Assignment Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubuas.sharepoint.com/teams/ADSAI2022-23/Shared Documents/General/Design documentation/Year 1 Design/Block D/MS Teams Assignment Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA54226-8787-49A8-809E-2B19D1B58E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="678" documentId="11_03746045E4F30D67E4D3283C82E484B242FC1AB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BEF582-8A36-474F-B837-16F776521440}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="50910" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Self-Assessment" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="244">
   <si>
     <t>Student Self-Assessment</t>
   </si>
@@ -82,6 +83,9 @@
     <t>Student Number</t>
   </si>
   <si>
+    <t>Municipality of Breda - Improve Breda</t>
+  </si>
+  <si>
     <t>GRADE</t>
   </si>
   <si>
@@ -91,6 +95,9 @@
     <t>Project</t>
   </si>
   <si>
+    <t>2022-32D FGA1.P4-ADSAI</t>
+  </si>
+  <si>
     <t>Opportunity</t>
   </si>
   <si>
@@ -100,7 +107,7 @@
     <t>Project Deadline</t>
   </si>
   <si>
-    <t>5pm Friday 30th June</t>
+    <t>16:59 Friday 23th June</t>
   </si>
   <si>
     <t>Grading Rubric</t>
@@ -162,13 +169,13 @@
     </r>
   </si>
   <si>
-    <t>1.1 Creates and updates plans to work effectively based on agreed upon priorities with consideration of dependencies and risk, using sound estimates to achieve short and long-term project goals.</t>
+    <t>1.1 Creates and updates plans to work effectively based on agreed upon priorities with consideration of dependencies and risks, using sound estimates to achieve short and long-term project goals.</t>
   </si>
   <si>
     <t>Not addressed this block in your project work. Your project work evidencing can include your Learning Log, Work-log, GitHub commits and supporting documents you submitted with your project by uploading during hand-in.</t>
   </si>
   <si>
-    <t>High level plan (e.g. a roadmap) breaking the project into phases.</t>
+    <t>High level plan (e.g. a roadmap) breaking the project into phases. Clear Individual contribution  is documented.</t>
   </si>
   <si>
     <t xml:space="preserve">Clear tasks and user stories created. And meeting all criteria in poor. </t>
@@ -177,10 +184,10 @@
     <t xml:space="preserve">Project and task planning clearly broken into days/weeks/phases within the project or block.  All project tasks have time/story point estimates. And meeting all criteria in insufficient. </t>
   </si>
   <si>
-    <t xml:space="preserve">Planning is feasible. Risks have been identified. Professional attendance for all classes and team meetings (including stand-ups)  in person. Healthy backlog (or thorough task coverage of possible project directions) maintained. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning is revisited and adjusted if required during the project. Risks identified have associated risk minimisation or elimination plans that were put into action where possible. Planning also factors in self-development time and how that is spent. And meeting all criteria in good. </t>
+    <t xml:space="preserve">Planning is feasible. Risks have been identified. Professional attendance for all classes and team meetings (including stand-ups). Healthy backlog (or thorough task coverage of possible project directions) maintained. Conducts a project retrospective about what went well, what could have been better, and how to improve in the future. And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning is revisited and adjusted if required during the project. Risks identified have associated risk minimisation or elimination plans that were put into action where possible. Planning also factors in self-development time and how that is spent. Proposes improvements to the deployment plan including action points which are derived from the project retrospective. And meeting all criteria in good. </t>
   </si>
   <si>
     <t>1.4 Regularly and objectively reviews progress on project and team goals and processes, reflecting on the strengths and weaknesses through project and peer reviews.</t>
@@ -204,10 +211,10 @@
     <t>1.5 Communicates productively while effectively adjusting to varied communication styles and intercultural differences in team work.</t>
   </si>
   <si>
-    <t xml:space="preserve">Participates in the communication workshops. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brings issues to the table during standup sessions and/or retrospectives, when neccesary. And meeting all criteria in poor. </t>
+    <t xml:space="preserve">Participates in a communication workshop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brings issues to the table during standup sessions and/or review/retrospectives, when neccesary. And meeting all criteria in poor. </t>
   </si>
   <si>
     <t xml:space="preserve">Communicates effectively with all stakeholders, evidenced by peer review. And meeting all criteria in insufficient.  </t>
@@ -245,7 +252,7 @@
 Demonstrates self-exploration and personal development, good academic practices in learning how to learn and the acquisition of professional knowledge through research, study, analysis, applied practice, discussion and reporting, where an excellent performance would show:</t>
   </si>
   <si>
-    <t>2.1 Sets ambitious, S.M.A.R.T./ C.L.E.A.R goals in alignment with the project brief, their chosen role(s), content of the assessment rubric and their personal long-term goals.</t>
+    <t>2.1 Sets ambitious, S.M.A.R.T.E.R. goals in alignment with the project brief, content of the assessment rubric and their personal long-term goals.</t>
   </si>
   <si>
     <t>Some project goals and self-development goals detailed.</t>
@@ -268,62 +275,49 @@
   </si>
   <si>
     <t>3.0 Legal
-The student demonstrates the basic knowledge of legal frameworks governing AI by providing evidence of legal decision-making while working with privacy-sensitive data.</t>
-  </si>
-  <si>
-    <t>3.1 Demonstrates the basic knowledge of legal frameworks governing AI by providing evidence of legal decision-making while working with privacy-sensitive data.</t>
+The student demonstrates the basic knowledge of legal and ethical frameworks governing AI by providing evidence of legal and ethical decision-making while working with privacy-sensitive data.</t>
+  </si>
+  <si>
+    <t>3.1 Demonstrates the basic knowledge of legal and ethical frameworks governing AI by providing evidence of legal and ethical decision-making while working with (privacy-)sensitive data.</t>
   </si>
   <si>
     <t xml:space="preserve">Not addressed this block in your project work. Your project work evidencing can include your Learning Log, Work-log, GitHub commits and supporting documents you submitted with your project by uploading during hand-in. </t>
   </si>
   <si>
-    <t>The student attends the debate and contributes to the report.</t>
-  </si>
-  <si>
-    <t>The student is able to create the checklist of legal aspects for the legal inquiry of the project. And meeting all criteria in poor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The student is able to properly define a thesis statement for the debate. The student is able to provide facts, reasons, examples, explanations, and evidence in data projects. 
-The checklist for legal inquiry of the project is based on the literature provided during the module. The legal aspects important for the project are identified. And meeting all criteria in insufficient.
+    <t>Clear Individual contribution  is documented.</t>
+  </si>
+  <si>
+    <t>The student is able to create a checklist of legal and ethical aspects for the legal and ethical inquiry of the project. And meeting all criteria in poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The checklist for legal and ethical inquiry of the project is based on the  DEDA and ALTAI frameworks provided during the module. The legal and ethical aspects important to the project are identified and included into the checklist. The legal and ethical aspects not important for the project are identified and not included into the checklist. The checklist is filled in. And meeting all criteria in insufficient.
 </t>
   </si>
   <si>
-    <t>The student is able to develop argumentation based on important facts, details, examples, and explanations from multiple authoritative sources. The student is able to differentiate facts from opinions and structure ideas and arguments in a sustained and logical fashion. The legal aspects important for the project are interpreted. And meeting all criteria in sufficient.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The student is able to propose improvements of the approach chosen based on argumentation mentioned under "good".  </t>
+    <t xml:space="preserve">The relevance of legal and ethical aspects included in the checklists for this project is explained. The reasoning for not including certain legal and ethical aspects in the checklist is justified. Argumentation for including and excluding legal and ethical aspects for the checklist is based on important facts, details, examples, and explanations from multiple authoritative sources and data.  And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The student provides evidence and explanations of legal and ethical decision-making for aspects within the checklist (where possible). And meeting all criteria in good.  </t>
   </si>
   <si>
     <t>Competency 1,2
 Dublin Descriptors 1, 2, 3,4, 5</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4.0 Business understanding
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>The student is able to determine business objectives,  and produce a project plan.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 The student is able to show understanding of the business understanding phase by writing a project plan. </t>
+    <t>4.0 Business understanding
+The student is able to determine business objectives, produce a project plan and disseminate project results.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 The student is able to show understanding of the business understanding phase by writing a project plan and disseminate project results. </t>
   </si>
   <si>
     <t>Clear individual contribution is documented.</t>
   </si>
   <si>
-    <t xml:space="preserve">The project vision and roadmap is present. And meeting all criteria in poor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows thorough understanding, from a business perspective, what the client really wants to accomplish, and derives business requirements. And meeting all criteria in insufficient.  </t>
+    <t xml:space="preserve">The project vision, roadmap, and poster is present. And meeting all criteria in poor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shows thorough understanding, from a business perspective, what the client really wants to accomplish, and derives business requirements. Iterates on the project based on (client) feedback. And meeting all criteria in insufficient.  </t>
   </si>
   <si>
     <t xml:space="preserve">Contributes to determination of resources and tools neccesary to meet business requirements. And meeting all criteria in sufficient. </t>
@@ -355,7 +349,7 @@
     <t xml:space="preserve">Assess the quality of the data, and draft a data quality report. And meeting all criteria in sufficient. </t>
   </si>
   <si>
-    <t xml:space="preserve">Propose improvements to the datamanagement strategy. And meeting all criteria in good. </t>
+    <t xml:space="preserve">Propose improvements to the data management strategy. And meeting all criteria in good. </t>
   </si>
   <si>
     <t>Competencies 5,6
@@ -369,44 +363,41 @@
     <t>6.1 Demonstrates an understanding of the modelling and evaluation stage by developing a model suitable for deployment.</t>
   </si>
   <si>
-    <t>Clear Individual contribution  is documented.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clear contribution to the selection of appropriate performance metrics is documented. And meeting all criteria in poor. </t>
   </si>
   <si>
     <t xml:space="preserve">Implements the machine learning model, and applies feature engineering (if necessary). And meeting all criteria in insufficient.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluates the model and improves model performance to meet the business criteria if necessary. Documents the work done and ensures code is of production quality. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compares multiple models and justify your choice of the final model in the project document. And meeting all criteria in good. </t>
+    <t xml:space="preserve">Evaluates the model and improves model performance to meet the business criteria if necessary. And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents the machine learning lifecycle for the models utilized. And meeting all criteria in good. </t>
   </si>
   <si>
     <t>Competencies 7, 8
 Dublin Descriptors 1, 2, 3, 4, 5</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0 Deployment                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               Is able to plan deployment, disseminate the project results, produce a final report and review the project.                                                                                                                                                                                                                                                                      </t>
-  </si>
-  <si>
-    <t>7.1 Demonstrates understanding of the deployment stage by disseminating the project findings and conducting a project restrospective.</t>
-  </si>
-  <si>
-    <t>Clear Individual contribution is documented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project report is present. And meeting all criteria in poor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A plan for deploying the model has been designed and further, contributes to project dissemination. And meeting all criteria in insufficient.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Conducts a project retrospective about what went well, what could have been better, and how to improve in the future. And meeting all criteria in sufficient. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposes improvements to the deployment plan including action points which are derived from the project retrospective. And meeting all criteria in good. </t>
+    <t xml:space="preserve">7.0 Deployment                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                               Is able to deliver value to the stakeholders and delivering production-ready code that is designed to be implemented into practical real-world scenarios such as applications or products.                                                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1 Is able to deliver value to the stakeholders and deliver production-ready code that is designed to be implemented into practical real-world scenarios such as applications or products.                </t>
+  </si>
+  <si>
+    <t>Clear Individual contribution is documented. Python scripts are delivered (in place of Jupyter notebooks).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a virtual environment and utilizes it alongside a package manager, enabling efficient management of dependencies and packages required for a data science project. And meeting all criteria in poor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Works towards delivering clean code according to industry standards, for example, by using logging, linting,  doc strings, code formatting, refactoring etc. And meeting all criteria in insufficient.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit tests are conducted to check the robustness of the delivered code with a test coverage of  at least 80%. And meeting all criteria in sufficient. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry-standard tools are used to document the code (e.g., sphinx). And meeting all criteria in good. </t>
   </si>
   <si>
     <t>PROJECT TOTAL</t>
@@ -849,19 +840,13 @@
   </si>
   <si>
     <t>OOP</t>
-  </si>
-  <si>
-    <t>2022-23D FGA1.P1-ADSAI</t>
-  </si>
-  <si>
-    <t>Municipality of Breda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -984,6 +969,12 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -1032,18 +1023,6 @@
     <font>
       <sz val="10"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1838,10 +1817,10 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="48" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,13 +1836,13 @@
     <xf numFmtId="0" fontId="19" fillId="23" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
@@ -1896,16 +1875,16 @@
     <xf numFmtId="0" fontId="19" fillId="49" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="51" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="51" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,14 +1899,14 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1939,7 +1918,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1960,7 +1939,7 @@
     <xf numFmtId="0" fontId="11" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="52" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1981,13 +1960,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="52" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2014,7 +1993,7 @@
     <xf numFmtId="0" fontId="19" fillId="56" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="55" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="56" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2026,26 +2005,21 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2064,8 +2038,7 @@
     <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2080,7 +2053,7 @@
     <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2101,13 +2074,14 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2138,56 +2112,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2199,56 +2172,48 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9902F182-0AFB-1F41-B571-EB1D4AC04E32}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="34">
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <fgColor rgb="FF63D297"/>
+          <bgColor rgb="FF63D297"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2439,132 +2404,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE5CD"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4CCCC"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF63D297"/>
-          <bgColor rgb="FF63D297"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
@@ -2613,14 +2452,14 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Student Self-Assessment Sheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="32"/>
+      <tableStyleElement type="secondRowStripe" dxfId="31"/>
     </tableStyle>
     <tableStyle name="Copy of Student Self-Assessment-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2838,12 +2677,12 @@
   </sheetPr>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4:I8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="39" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="39" customWidth="1"/>
@@ -2861,7 +2700,7 @@
     <col min="17" max="16384" width="14.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="12.95" customHeight="1">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2879,14 +2718,14 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="23.45">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2899,11 +2738,11 @@
       <c r="O2" s="18"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="204"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2913,135 +2752,135 @@
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="158" t="s">
+      <c r="J3" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="178" t="s">
+      <c r="K3" s="205"/>
+      <c r="L3" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.95" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="210" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="182"/>
-      <c r="L4" s="183" t="s">
+      <c r="F4" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="184">
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="176" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="177">
         <f>IF(ROUND((N29/10),1)&lt;&gt;ROUND((N29/10),0),ROUND((N29/10),1),ROUND((N29/10),0))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="185" t="str">
+      <c r="N4" s="178" t="str">
         <f>IF(M4&gt;=5.5,"PASS",IF(M4&gt;0,"FAIL","M/O"))</f>
         <v>M/O</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="12.95" customHeight="1">
       <c r="A5" s="17"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="179" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="177"/>
+      <c r="C5" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="205"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="182"/>
-      <c r="K5" s="182"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="177"/>
-      <c r="N5" s="177"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="205"/>
+      <c r="N5" s="205"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13.9">
       <c r="A6" s="17"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="179" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="186"/>
+      <c r="C6" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="179"/>
       <c r="E6" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="173"/>
+      <c r="G6" s="173"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
       <c r="O6" s="18"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13.9">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="177"/>
+      <c r="C7" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="205"/>
       <c r="E7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="177"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="205"/>
+      <c r="N7" s="205"/>
       <c r="O7" s="18"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="28.35" customHeight="1">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="187" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="188"/>
+      <c r="C8" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="181"/>
       <c r="E8" s="131" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
+        <v>14</v>
+      </c>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
       <c r="O8" s="18"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13.9">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -3059,7 +2898,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13.9">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3077,14 +2916,14 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="23.45">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
+      <c r="C11" s="202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="203"/>
+      <c r="E11" s="203"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -3097,97 +2936,97 @@
       <c r="O11" s="18"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13.9">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="42"/>
       <c r="D12" s="43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O12" s="26"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="48.95" customHeight="1">
       <c r="A13" s="17"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="167" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="191" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
+      <c r="C13" s="161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="184" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
       <c r="N13" s="120"/>
       <c r="O13" s="28"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="118.9" customHeight="1">
       <c r="A14" s="17"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="170" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="170"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="164"/>
       <c r="F14" s="57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="126" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" s="127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="128" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J14" s="129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K14" s="130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L14" s="41">
         <v>10</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N14" s="41">
         <f>IF(M14="MISSING",0,IF(M14="POOR",(L14*0.2),IF(M14="INSUFFICIENT",(L14*0.4),IF(M14="SUFFICIENT",(L14*0.6),IF(M14="GOOD",(L14*0.8),IF(M14="EXCELLENT",L14,"ERROR"))))))</f>
@@ -3196,37 +3035,37 @@
       <c r="O14" s="28"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="105.95" customHeight="1">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="170" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="170"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="164"/>
       <c r="F15" s="57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G15" s="135" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" s="136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J15" s="137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15" s="138" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L15" s="41">
         <v>10</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N15" s="41">
         <v>0</v>
@@ -3234,37 +3073,37 @@
       <c r="O15" s="28"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" ht="116.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="116.45" customHeight="1">
       <c r="A16" s="17"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="170" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="170"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="164"/>
       <c r="F16" s="57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" s="127" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I16" s="128" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J16" s="129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16" s="130" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L16" s="41">
         <v>10</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N16" s="41">
         <f>IF(M16="MISSING",0,IF(M16="POOR",(L16*0.2),IF(M16="INSUFFICIENT",(L16*0.4),IF(M16="SUFFICIENT",(L16*0.6),IF(M16="GOOD",(L16*0.8),IF(M16="EXCELLENT",L16,"ERROR"))))))</f>
@@ -3273,37 +3112,37 @@
       <c r="O16" s="28"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="118.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="118.15" customHeight="1">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="170" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="170"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="164" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="164"/>
       <c r="F17" s="57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" s="126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I17" s="128" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J17" s="129" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K17" s="130" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L17" s="41">
         <v>10</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N17" s="41">
         <f>IF(M17="MISSING",0,IF(M17="POOR",(L17*0.2),IF(M17="INSUFFICIENT",(L17*0.4),IF(M17="SUFFICIENT",(L17*0.6),IF(M17="GOOD",(L17*0.8),IF(M17="EXCELLENT",L17,"ERROR"))))))</f>
@@ -3312,59 +3151,59 @@
       <c r="O17" s="28"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="48.6" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="166" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="191" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
+      <c r="C18" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="184" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
       <c r="L18" s="121"/>
       <c r="M18" s="121"/>
       <c r="N18" s="121"/>
       <c r="O18" s="28"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="118.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="118.7" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="193" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="193"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="186"/>
       <c r="F19" s="123" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J19" s="53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L19" s="41">
         <v>10</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N19" s="41">
         <f>IF(M19="MISSING",0,IF(M19="POOR",(L19*0.2),IF(M19="INSUFFICIENT",(L19*0.4),IF(M19="SUFFICIENT",(L19*0.6),IF(M19="GOOD",(L19*0.8),IF(M19="EXCELLENT",L19,"ERROR"))))))</f>
@@ -3373,59 +3212,59 @@
       <c r="O19" s="28"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1">
       <c r="A20" s="17"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="168" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
+      <c r="C20" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="28"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="189" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="190"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="183"/>
       <c r="F21" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J21" s="53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L21" s="41">
         <v>10</v>
       </c>
       <c r="M21" s="124" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N21" s="41">
         <f>IF(M21="MISSING",0,IF(M21="POOR",(L21*0.2),IF(M21="INSUFFICIENT",(L21*0.4),IF(M21="SUFFICIENT",(L21*0.6),IF(M21="GOOD",(L21*0.8),IF(M21="EXCELLENT",L21,"ERROR"))))))</f>
@@ -3434,59 +3273,59 @@
       <c r="O21" s="28"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="48" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="166" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="168" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
+      <c r="C22" s="160" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
       <c r="L22" s="122"/>
       <c r="M22" s="122"/>
       <c r="N22" s="122"/>
       <c r="O22" s="28"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="108" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="170" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="171"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="164" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="165"/>
       <c r="F23" s="139" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" s="140" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23" s="127" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" s="128" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" s="129" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" s="130" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L23" s="41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M23" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N23" s="41">
         <f>IF(M23="MISSING",0,IF(M23="POOR",(L23*0.2),IF(M23="INSUFFICIENT",(L23*0.4),IF(M23="SUFFICIENT",(L23*0.6),IF(M23="GOOD",(L23*0.8),IF(M23="EXCELLENT",L23,"ERROR"))))))</f>
@@ -3495,59 +3334,59 @@
       <c r="O23" s="28"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="42.95" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
+      <c r="C24" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="166" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="28"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="173"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="167" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="167"/>
       <c r="F25" s="64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" s="141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" s="127" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" s="128" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J25" s="129" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K25" s="130" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L25" s="41">
         <v>10</v>
       </c>
       <c r="M25" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N25" s="41">
         <f>IF(M25="MISSING",0,IF(M25="POOR",(L25*0.2),IF(M25="INSUFFICIENT",(L25*0.4),IF(M25="SUFFICIENT",(L25*0.6),IF(M25="GOOD",(L25*0.8),IF(M25="EXCELLENT",L25,"ERROR"))))))</f>
@@ -3556,20 +3395,20 @@
       <c r="O25" s="55"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="53.1" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="168" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
+      <c r="C26" s="160" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
       <c r="J26" s="113"/>
       <c r="K26" s="113"/>
       <c r="L26" s="122"/>
@@ -3578,37 +3417,37 @@
       <c r="O26" s="28"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="111" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="170" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="170"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="164" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="164"/>
       <c r="F27" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27" s="126" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H27" s="127" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J27" s="129" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K27" s="130" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L27" s="41">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N27" s="41">
         <f>IF(M27="MISSING",0,IF(M27="POOR",(L27*0.2),IF(M27="INSUFFICIENT",(L27*0.4),IF(M27="SUFFICIENT",(L27*0.6),IF(M27="GOOD",(L27*0.8),IF(M27="EXCELLENT",L27,"ERROR"))))))</f>
@@ -3617,59 +3456,59 @@
       <c r="O27" s="28"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="53.1" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="174" t="s">
+      <c r="C28" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="174"/>
+      <c r="D28" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
       <c r="L28" s="122"/>
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="28"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="170"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="164"/>
       <c r="F29" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G29" s="126" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H29" s="127" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I29" s="128" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J29" s="129" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="130" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L29" s="41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N29" s="41">
         <f>IF(M29="MISSING",0,IF(M29="POOR",(L29*0.2),IF(M29="INSUFFICIENT",(L29*0.4),IF(M29="SUFFICIENT",(L29*0.6),IF(M29="GOOD",(L29*0.8),IF(M29="EXCELLENT",L29,"ERROR"))))))</f>
@@ -3678,7 +3517,7 @@
       <c r="O29" s="62"/>
       <c r="P29" s="60"/>
     </row>
-    <row r="30" spans="1:16" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="35.85" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="18"/>
@@ -3688,7 +3527,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J30" s="58"/>
       <c r="K30" s="58"/>
@@ -3697,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="M30" s="47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N30" s="41">
         <f>SUM(N14:N29)</f>
@@ -3706,7 +3545,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="17.45" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3724,7 +3563,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3742,14 +3581,14 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.45">
       <c r="A33" s="17"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="155" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
+      <c r="C33" s="202" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -3762,343 +3601,343 @@
       <c r="O33" s="30"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A34" s="17"/>
       <c r="B34" s="29"/>
       <c r="C34" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="156"/>
+      <c r="D34" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="203"/>
       <c r="F34" s="109" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
       <c r="L34" s="65"/>
       <c r="M34" s="109"/>
       <c r="N34" s="110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="29"/>
       <c r="C35" s="66">
         <v>9</v>
       </c>
-      <c r="D35" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="163"/>
+      <c r="D35" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="206"/>
       <c r="F35" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
+      <c r="G35" s="158" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="158"/>
+      <c r="M35" s="158"/>
       <c r="N35" s="67">
         <v>3</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="29"/>
       <c r="C36" s="68">
         <v>10</v>
       </c>
-      <c r="D36" s="162" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="163"/>
+      <c r="D36" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="206"/>
       <c r="F36" s="111" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
+      <c r="G36" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
       <c r="N36" s="69">
         <v>3</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="29"/>
       <c r="C37" s="66">
         <v>11</v>
       </c>
-      <c r="D37" s="165" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="163"/>
+      <c r="D37" s="159" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="206"/>
       <c r="F37" s="111" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="164"/>
-      <c r="K37" s="164"/>
-      <c r="L37" s="164"/>
-      <c r="M37" s="164"/>
+      <c r="G37" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
+      <c r="L37" s="158"/>
+      <c r="M37" s="158"/>
       <c r="N37" s="67">
         <v>3</v>
       </c>
       <c r="O37" s="29"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="29"/>
       <c r="C38" s="70">
         <v>1</v>
       </c>
       <c r="D38" s="146" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E38" s="146"/>
       <c r="F38" s="112" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="148"/>
-      <c r="M38" s="148"/>
+      <c r="G38" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
       <c r="N38" s="71">
         <v>3</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="29"/>
       <c r="C39" s="72">
         <v>2</v>
       </c>
-      <c r="D39" s="149" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="150"/>
+      <c r="D39" s="148" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="207"/>
       <c r="F39" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="G39" s="149" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
       <c r="N39" s="73">
         <v>3</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="29"/>
       <c r="C40" s="74">
         <v>3</v>
       </c>
-      <c r="D40" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="153"/>
+      <c r="D40" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="208"/>
       <c r="F40" s="112" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
+      <c r="G40" s="147" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
       <c r="N40" s="75">
         <v>3</v>
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="29"/>
       <c r="C41" s="76">
         <v>4</v>
       </c>
-      <c r="D41" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="150"/>
+      <c r="D41" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="207"/>
       <c r="F41" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="151" t="s">
         <v>124</v>
       </c>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="G41" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
       <c r="N41" s="77">
         <v>3</v>
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="29"/>
       <c r="C42" s="70">
         <v>5</v>
       </c>
       <c r="D42" s="146" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="147"/>
+        <v>126</v>
+      </c>
+      <c r="E42" s="209"/>
       <c r="F42" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="148" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="148"/>
-      <c r="M42" s="148"/>
+      <c r="G42" s="147" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
       <c r="N42" s="71">
         <v>3</v>
       </c>
       <c r="O42" s="29"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="29"/>
       <c r="C43" s="72">
         <v>6</v>
       </c>
-      <c r="D43" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="150"/>
+      <c r="D43" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="207"/>
       <c r="F43" s="114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="151" t="s">
         <v>128</v>
       </c>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="G43" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
       <c r="N43" s="73">
         <v>3</v>
       </c>
       <c r="O43" s="29"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="29"/>
       <c r="C44" s="74">
         <v>7</v>
       </c>
-      <c r="D44" s="152" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="153"/>
+      <c r="D44" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="208"/>
       <c r="F44" s="112" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="148"/>
-      <c r="K44" s="148"/>
-      <c r="L44" s="148"/>
-      <c r="M44" s="148"/>
+      <c r="G44" s="147" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
       <c r="N44" s="75">
         <v>3</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="29"/>
       <c r="C45" s="76">
         <v>8</v>
       </c>
-      <c r="D45" s="154" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="150"/>
+      <c r="D45" s="151" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="207"/>
       <c r="F45" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="151" t="s">
         <v>133</v>
       </c>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151"/>
+      <c r="G45" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="149"/>
+      <c r="I45" s="149"/>
+      <c r="J45" s="149"/>
+      <c r="K45" s="149"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="149"/>
       <c r="N45" s="77">
         <v>3</v>
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A46" s="17"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -4116,7 +3955,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4134,14 +3973,14 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.45">
       <c r="A48" s="17"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="155" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
+      <c r="C48" s="202" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
       <c r="F48" s="27"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -4154,163 +3993,163 @@
       <c r="O48" s="18"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A49" s="17"/>
       <c r="B49" s="32"/>
       <c r="C49" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49" s="115"/>
-      <c r="F49" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="158" t="s">
+      <c r="F49" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="K49" s="203"/>
+      <c r="L49" s="203"/>
+      <c r="M49" s="203"/>
+      <c r="N49" s="203"/>
       <c r="O49" s="18"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35">
         <v>1</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50" s="117"/>
-      <c r="F50" s="159" t="s">
-        <v>139</v>
-      </c>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="159" t="s">
+      <c r="F50" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="160"/>
-      <c r="N50" s="160"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="154" t="s">
+        <v>141</v>
+      </c>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
       <c r="O50" s="18"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="34"/>
       <c r="C51" s="37">
         <v>2</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="116"/>
-      <c r="F51" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="161" t="s">
+      <c r="F51" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="K51" s="160"/>
-      <c r="L51" s="160"/>
-      <c r="M51" s="160"/>
-      <c r="N51" s="160"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="156" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
       <c r="O51" s="18"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="34"/>
       <c r="C52" s="35">
         <v>3</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E52" s="117"/>
-      <c r="F52" s="159" t="s">
-        <v>145</v>
-      </c>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="159" t="s">
+      <c r="F52" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="K52" s="160"/>
-      <c r="L52" s="160"/>
-      <c r="M52" s="160"/>
-      <c r="N52" s="160"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
       <c r="O52" s="18"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="34"/>
       <c r="C53" s="37">
         <v>4</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E53" s="116"/>
-      <c r="F53" s="161" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="161" t="s">
+      <c r="F53" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="K53" s="160"/>
-      <c r="L53" s="160"/>
-      <c r="M53" s="160"/>
-      <c r="N53" s="160"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
       <c r="O53" s="18"/>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="34"/>
       <c r="C54" s="35">
         <v>5</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E54" s="117"/>
-      <c r="F54" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="160"/>
-      <c r="H54" s="160"/>
-      <c r="I54" s="160"/>
-      <c r="J54" s="159" t="s">
+      <c r="F54" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="K54" s="160"/>
-      <c r="L54" s="160"/>
-      <c r="M54" s="160"/>
-      <c r="N54" s="160"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
       <c r="O54" s="18"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4328,7 +4167,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" s="59" customFormat="1" ht="13.9">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4348,7 +4187,7 @@
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C30:L30 C11:L12 D19:L19 N30 D29:E29 N15 C28 D14:L14 D15:E15 L15 C22:L23 D16:L17 G29:L29 D24:L27 C24:C26 D28:L28" name="Range1_2_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="C30:L30 C11:L12 D19:L19 N30 D29:E29 N15 C28 D14:L14 D15:E15 L15 C22:L23 D16:L17 G29:L29 C24:C26 D24:L28" name="Range1_2_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="F29" name="Range1_2_1_2"/>
     <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="D13:L13" name="Range1_2_1_1"/>
     <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="D18:L18" name="Range1_2_1_3"/>
@@ -4439,183 +4278,100 @@
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="G44:M44"/>
   </mergeCells>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="containsText" dxfId="46" priority="94" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH(("FAIL"),(N4))))</formula>
+  <conditionalFormatting sqref="L29:L30">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="45" priority="95" operator="equal">
-      <formula>"PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="cellIs" dxfId="44" priority="96" operator="equal">
-      <formula>"M/O"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+  <conditionalFormatting sqref="M14:M19">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"GOOD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"SUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>"INSUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>"MISSING"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="37" priority="73" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25 M19 M23">
-    <cfRule type="cellIs" dxfId="36" priority="69" operator="equal">
+  <conditionalFormatting sqref="M23 M25">
+    <cfRule type="cellIs" dxfId="20" priority="69" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="70" operator="equal">
       <formula>"GOOD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
       <formula>"SUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="72" operator="equal">
       <formula>"INSUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="74" operator="equal">
       <formula>"MISSING"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25 M19 M23">
-    <cfRule type="cellIs" dxfId="31" priority="75" operator="equal">
-      <formula>"POOR"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="29" priority="38" operator="equal">
-      <formula>"EXCELLENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
-      <formula>"GOOD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
-      <formula>"SUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
-      <formula>"INSUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
-      <formula>"MISSING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
-      <formula>"POOR"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
-      <formula>"EXCELLENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
-      <formula>"GOOD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
-      <formula>"SUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="35" operator="equal">
-      <formula>"INSUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="36" operator="equal">
-      <formula>"MISSING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="cellIs" dxfId="18" priority="37" operator="equal">
-      <formula>"POOR"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
-      <formula>"EXCELLENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="equal">
-      <formula>"GOOD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="equal">
-      <formula>"SUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
-      <formula>"INSUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="30" operator="equal">
-      <formula>"MISSING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="12" priority="31" operator="equal">
-      <formula>"POOR"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
-      <formula>"EXCELLENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
-      <formula>"GOOD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
-      <formula>"SUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
-      <formula>"INSUFFICIENT"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
-      <formula>"MISSING"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18">
-    <cfRule type="cellIs" dxfId="6" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
       <formula>"POOR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"EXCELLENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"GOOD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"SUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"INSUFFICIENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"MISSING"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"POOR"</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="cellIs" dxfId="8" priority="38" operator="equal">
+      <formula>"EXCELLENT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="39" operator="equal">
+      <formula>"GOOD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="40" operator="equal">
+      <formula>"SUFFICIENT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="41" operator="equal">
+      <formula>"INSUFFICIENT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="43" operator="equal">
+      <formula>"MISSING"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="44" operator="equal">
       <formula>"POOR"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="containsText" dxfId="2" priority="94" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH(("FAIL"),(N4))))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
+      <formula>"M/O"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
@@ -4633,11 +4389,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F364E9-2EB7-5940-933A-B5F5600966F3}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="78"/>
     <col min="2" max="2" width="23.85546875" style="78" customWidth="1"/>
@@ -4650,50 +4406,50 @@
     <col min="9" max="16384" width="8.85546875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="203"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="204"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="206"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="199" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="200"/>
+    <row r="1" spans="1:15">
+      <c r="A1" s="193" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="196"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="198"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A3" s="191" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="192"/>
       <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="196" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
+      <c r="D3" s="188" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210"/>
       <c r="O3" s="100"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="99"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
@@ -4713,25 +4469,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="26.45">
       <c r="A5" s="91"/>
       <c r="D5" s="94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" s="93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="91"/>
       <c r="D6" s="90"/>
       <c r="E6" s="89"/>
@@ -4739,278 +4495,278 @@
       <c r="G6" s="89"/>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A7" s="105">
         <v>1</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H7" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="105">
         <v>2</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="107" t="s">
-        <v>157</v>
-      </c>
       <c r="E8" s="108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G8" s="107"/>
       <c r="H8" s="107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A9" s="133">
         <v>3</v>
       </c>
       <c r="B9" s="134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D9" s="133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F9" s="133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H9" s="133" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A10" s="142">
         <v>4</v>
       </c>
       <c r="B10" s="143" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C10" s="143" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D10" s="144" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F10" s="145" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G10" s="144"/>
       <c r="H10" s="144" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A11" s="102">
         <v>5</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="102"/>
       <c r="H11" s="102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A12" s="102">
         <v>6</v>
       </c>
       <c r="B12" s="103" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A13" s="102">
         <v>7</v>
       </c>
       <c r="B13" s="103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H13" s="101"/>
     </row>
-    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A14" s="102">
         <v>8</v>
       </c>
       <c r="B14" s="103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H14" s="101"/>
     </row>
-    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A15" s="87">
         <v>9</v>
       </c>
       <c r="B15" s="82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F15" s="86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H15" s="85"/>
     </row>
-    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="A16" s="87">
         <v>10</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E16" s="86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F16" s="86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H16" s="85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1">
       <c r="A17" s="83">
         <v>11</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G17" s="79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H17" s="79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5033,42 +4789,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="26.45">
       <c r="A2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="209" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="B2" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.9">
       <c r="B3" s="119"/>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -5088,7 +4844,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="13.9">
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -5108,35 +4864,35 @@
       <c r="S4" s="2"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="207" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
+    <row r="5" spans="1:20" ht="184.9">
+      <c r="B5" s="199" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
       <c r="F5" s="10">
         <v>6.1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N5" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M5,M6)</f>
@@ -5164,28 +4920,28 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="105.6">
       <c r="B6" s="119"/>
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -5195,35 +4951,35 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="207" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
+    <row r="7" spans="1:20" ht="79.900000000000006">
+      <c r="B7" s="199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
       <c r="F7" s="10">
         <v>6.2</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N7" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M7,M8)</f>
@@ -5251,30 +5007,30 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="207" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
+    <row r="8" spans="1:20" ht="66.599999999999994">
+      <c r="B8" s="199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -5284,7 +5040,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="13.15">
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
@@ -5292,7 +5048,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="13.15">
       <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
@@ -5301,7 +5057,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="13.15">
       <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
@@ -5310,7 +5066,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="13.15">
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
@@ -5319,57 +5075,57 @@
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="208"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
+    <row r="13" spans="1:20" ht="13.9">
+      <c r="B13" s="200"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="207" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
+    </row>
+    <row r="14" spans="1:20" ht="70.5" customHeight="1">
+      <c r="B14" s="199" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
       <c r="F14" s="10">
         <v>3.1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N14" s="2" t="e">
         <f ca="1">_xludf.CONCAT(M14,M15)</f>
@@ -5396,31 +5152,31 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="66.75" customHeight="1">
       <c r="B15" s="13"/>
       <c r="G15" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="13.15">
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -5429,7 +5185,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" ht="13.15">
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -5438,33 +5194,33 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="255" x14ac:dyDescent="0.2">
-      <c r="B18" s="207" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
+    <row r="18" spans="2:19" ht="251.45">
+      <c r="B18" s="199" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
       <c r="F18" s="10">
         <v>3.2</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N18" s="4" t="e">
         <f ca="1">_xludf.CONCAT(M18,M19)</f>
@@ -5491,22 +5247,22 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" ht="132">
       <c r="G19" s="10"/>
       <c r="H19" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" ht="13.15">
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -5515,7 +5271,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" ht="13.15">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5524,7 +5280,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" ht="13.15">
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -5533,57 +5289,57 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="24" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" ht="13.15">
       <c r="H24" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="208" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
+    </row>
+    <row r="25" spans="2:19" ht="290.45">
+      <c r="B25" s="200" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="205"/>
+      <c r="D25" s="205"/>
       <c r="G25" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="13.15">
       <c r="G26" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -5603,25 +5359,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd38d267-56bb-4e22-b975-199a06fd69fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8c712e5-67fc-4595-93cb-a4164dd8eff3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DB06FA0A2AD4DA488583749EC2534234" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="886b513cfe8a01d235b598bb5d9e3280">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="60348849-ecd6-40c5-8069-7b4f665118aa" xmlns:ns3="d3efc331-58f4-463c-b792-81d907c25a2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ea6c152a0770c3b66e26597cca1a51d2" ns2:_="" ns3:_="">
-    <xsd:import namespace="60348849-ecd6-40c5-8069-7b4f665118aa"/>
-    <xsd:import namespace="d3efc331-58f4-463c-b792-81d907c25a2d"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064DEF28CA2629948A9F801C782641252" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e29c08bd2fa8ab5d37e806398c14b17">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd38d267-56bb-4e22-b975-199a06fd69fa" xmlns:ns3="d8c712e5-67fc-4595-93cb-a4164dd8eff3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30fadebd201830d804edab1b035af467" ns2:_="" ns3:_="">
+    <xsd:import namespace="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
+    <xsd:import namespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -5630,16 +5382,21 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5647,7 +5404,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="60348849-ecd6-40c5-8069-7b4f665118aa" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd38d267-56bb-4e22-b975-199a06fd69fa" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -5660,16 +5417,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
@@ -5677,11 +5432,9 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
@@ -5694,18 +5447,44 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="365a90ea-d0e7-4aae-8ef9-9f5dd1eb65e3" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="23" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d3efc331-58f4-463c-b792-81d907c25a2d" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8c712e5-67fc-4595-93cb-a4164dd8eff3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
@@ -5733,6 +5512,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{5e624992-a676-4554-99c9-a3d8ae70b3e3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d8c712e5-67fc-4595-93cb-a4164dd8eff3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -5834,38 +5624,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E3095-4F4D-4DD9-BAD5-E276899012AF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCA8CA2F-1DC9-4462-8B83-EF7474A9E105}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="60348849-ecd6-40c5-8069-7b4f665118aa"/>
-    <ds:schemaRef ds:uri="d3efc331-58f4-463c-b792-81d907c25a2d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}"/>
 </file>
--- a/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
+++ b/docs/Year1/BlockD/MS Assignment Template/Self-Assessment Rubric Block - Y1D_2022-23_ADSAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubuas.sharepoint.com/teams/ADSAI2022-23/Shared Documents/General/Design documentation/Year 1 Design/Block D/MS Teams Assignment Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramh\Documents\GitHub\AAI-DM\docs\Year1\BlockD\MS Assignment Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="678" documentId="11_03746045E4F30D67E4D3283C82E484B242FC1AB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BEF582-8A36-474F-B837-16F776521440}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35BE435-797F-4962-9218-D94C26979C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="3495" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Self-Assessment" sheetId="6" r:id="rId1"/>
@@ -846,7 +846,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2002,78 +2002,46 @@
     <xf numFmtId="0" fontId="19" fillId="56" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2112,24 +2080,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2172,19 +2181,10 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{9902F182-0AFB-1F41-B571-EB1D4AC04E32}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -2678,11 +2678,11 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29:E29"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="39" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="39" customWidth="1"/>
@@ -2700,7 +2700,7 @@
     <col min="17" max="16384" width="14.42578125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.95" customHeight="1">
+    <row r="1" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2718,14 +2718,14 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="23.45">
+    <row r="2" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="202" t="s">
+      <c r="C2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2738,11 +2738,11 @@
       <c r="O2" s="18"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1">
+    <row r="3" spans="1:16" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="204"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="159"/>
       <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2752,135 +2752,135 @@
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="153" t="s">
+      <c r="J3" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="205"/>
-      <c r="L3" s="170" t="s">
+      <c r="K3" s="161"/>
+      <c r="L3" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
       <c r="O3" s="20"/>
       <c r="P3" s="19"/>
     </row>
-    <row r="4" spans="1:16" ht="12.95" customHeight="1">
+    <row r="4" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="203"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="176" t="s">
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="177">
+      <c r="M4" s="169">
         <f>IF(ROUND((N29/10),1)&lt;&gt;ROUND((N29/10),0),ROUND((N29/10),1),ROUND((N29/10),0))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="178" t="str">
+      <c r="N4" s="170" t="str">
         <f>IF(M4&gt;=5.5,"PASS",IF(M4&gt;0,"FAIL","M/O"))</f>
         <v>M/O</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="12.95" customHeight="1">
+    <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="24"/>
-      <c r="C5" s="171" t="s">
+      <c r="C5" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="205"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
       <c r="O5" s="18"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" ht="13.9">
+    <row r="6" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="24"/>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="179"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="205"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="18"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" ht="13.9">
+    <row r="7" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="205"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="205"/>
-      <c r="N7" s="205"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
       <c r="O7" s="18"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="28.35" customHeight="1">
+    <row r="8" spans="1:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="180" t="s">
+      <c r="C8" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="181"/>
+      <c r="D8" s="173"/>
       <c r="E8" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
-      <c r="N8" s="205"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
       <c r="O8" s="18"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="13.9">
+    <row r="9" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -2898,7 +2898,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" ht="13.9">
+    <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2916,14 +2916,14 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" ht="23.45">
+    <row r="11" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="202" t="s">
+      <c r="C11" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -2936,7 +2936,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" ht="13.9">
+    <row r="12" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="42"/>
@@ -2974,36 +2974,36 @@
       <c r="O12" s="26"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" ht="48.95" customHeight="1">
+    <row r="13" spans="1:16" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="161" t="s">
+      <c r="C13" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
       <c r="L13" s="120"/>
       <c r="M13" s="120"/>
       <c r="N13" s="120"/>
       <c r="O13" s="28"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" ht="118.9" customHeight="1">
+    <row r="14" spans="1:16" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="164" t="s">
+      <c r="C14" s="151"/>
+      <c r="D14" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="164"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="57" t="s">
         <v>29</v>
       </c>
@@ -3035,14 +3035,14 @@
       <c r="O14" s="28"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" ht="105.95" customHeight="1">
+    <row r="15" spans="1:16" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="164" t="s">
+      <c r="C15" s="151"/>
+      <c r="D15" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="164"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="57" t="s">
         <v>29</v>
       </c>
@@ -3073,14 +3073,14 @@
       <c r="O15" s="28"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" ht="116.45" customHeight="1">
+    <row r="16" spans="1:16" ht="116.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="161"/>
-      <c r="D16" s="164" t="s">
+      <c r="C16" s="151"/>
+      <c r="D16" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="164"/>
+      <c r="E16" s="156"/>
       <c r="F16" s="57" t="s">
         <v>29</v>
       </c>
@@ -3112,14 +3112,14 @@
       <c r="O16" s="28"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" ht="118.15" customHeight="1">
+    <row r="17" spans="1:16" ht="118.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="161"/>
-      <c r="D17" s="164" t="s">
+      <c r="C17" s="151"/>
+      <c r="D17" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="164"/>
+      <c r="E17" s="156"/>
       <c r="F17" s="57" t="s">
         <v>29</v>
       </c>
@@ -3151,36 +3151,36 @@
       <c r="O17" s="28"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="48.6" customHeight="1">
+    <row r="18" spans="1:16" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="160" t="s">
+      <c r="C18" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="184" t="s">
+      <c r="D18" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="185"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="121"/>
       <c r="M18" s="121"/>
       <c r="N18" s="121"/>
       <c r="O18" s="28"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="118.7" customHeight="1">
+    <row r="19" spans="1:16" ht="118.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="186" t="s">
+      <c r="C19" s="146"/>
+      <c r="D19" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="186"/>
+      <c r="E19" s="157"/>
       <c r="F19" s="123" t="s">
         <v>29</v>
       </c>
@@ -3212,36 +3212,36 @@
       <c r="O19" s="28"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1">
+    <row r="20" spans="1:16" s="59" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="162" t="s">
+      <c r="D20" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
       <c r="L20" s="122"/>
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="28"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1">
+    <row r="21" spans="1:16" s="59" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="182" t="s">
+      <c r="C21" s="146"/>
+      <c r="D21" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="183"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="57" t="s">
         <v>64</v>
       </c>
@@ -3273,36 +3273,36 @@
       <c r="O21" s="28"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" ht="48" customHeight="1">
+    <row r="22" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
       <c r="L22" s="122"/>
       <c r="M22" s="122"/>
       <c r="N22" s="122"/>
       <c r="O22" s="28"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" ht="108" customHeight="1">
+    <row r="23" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="164" t="s">
+      <c r="C23" s="146"/>
+      <c r="D23" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="165"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="139" t="s">
         <v>64</v>
       </c>
@@ -3334,36 +3334,36 @@
       <c r="O23" s="28"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" ht="42.95" customHeight="1">
+    <row r="24" spans="1:16" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="28"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1">
+    <row r="25" spans="1:16" s="56" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="167" t="s">
+      <c r="C25" s="153"/>
+      <c r="D25" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="167"/>
+      <c r="E25" s="176"/>
       <c r="F25" s="64" t="s">
         <v>29</v>
       </c>
@@ -3395,20 +3395,20 @@
       <c r="O25" s="55"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="1:16" ht="53.1" customHeight="1">
+    <row r="26" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="160" t="s">
+      <c r="C26" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="162" t="s">
+      <c r="D26" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
       <c r="J26" s="113"/>
       <c r="K26" s="113"/>
       <c r="L26" s="122"/>
@@ -3417,14 +3417,14 @@
       <c r="O26" s="28"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" ht="111" customHeight="1">
+    <row r="27" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="164" t="s">
+      <c r="C27" s="146"/>
+      <c r="D27" s="156" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="164"/>
+      <c r="E27" s="156"/>
       <c r="F27" s="57" t="s">
         <v>64</v>
       </c>
@@ -3456,36 +3456,36 @@
       <c r="O27" s="28"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" ht="53.1" customHeight="1">
+    <row r="28" spans="1:16" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
       <c r="L28" s="122"/>
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="28"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1">
+    <row r="29" spans="1:16" s="63" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="164" t="s">
+      <c r="C29" s="146"/>
+      <c r="D29" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="164"/>
+      <c r="E29" s="156"/>
       <c r="F29" s="57" t="s">
         <v>64</v>
       </c>
@@ -3517,7 +3517,7 @@
       <c r="O29" s="62"/>
       <c r="P29" s="60"/>
     </row>
-    <row r="30" spans="1:16" ht="35.85" customHeight="1">
+    <row r="30" spans="1:16" ht="35.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="27"/>
       <c r="C30" s="18"/>
@@ -3545,7 +3545,7 @@
       <c r="O30" s="28"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" ht="17.45" customHeight="1">
+    <row r="31" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3563,7 +3563,7 @@
       <c r="O31" s="28"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="32" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3581,14 +3581,14 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.45">
+    <row r="33" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="17"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="202" t="s">
+      <c r="C33" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
@@ -3601,26 +3601,26 @@
       <c r="O33" s="30"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="34" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="29"/>
       <c r="C34" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="153" t="s">
+      <c r="D34" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="203"/>
+      <c r="E34" s="153"/>
       <c r="F34" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="153" t="s">
+      <c r="G34" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="153"/>
       <c r="L34" s="65"/>
       <c r="M34" s="109"/>
       <c r="N34" s="110" t="s">
@@ -3629,315 +3629,315 @@
       <c r="O34" s="29"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="29"/>
       <c r="C35" s="66">
         <v>9</v>
       </c>
-      <c r="D35" s="159" t="s">
+      <c r="D35" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="E35" s="206"/>
+      <c r="E35" s="179"/>
       <c r="F35" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="158" t="s">
+      <c r="G35" s="180" t="s">
         <v>110</v>
       </c>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
       <c r="N35" s="67">
         <v>3</v>
       </c>
       <c r="O35" s="29"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="29"/>
       <c r="C36" s="68">
         <v>10</v>
       </c>
-      <c r="D36" s="157" t="s">
+      <c r="D36" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="E36" s="206"/>
+      <c r="E36" s="179"/>
       <c r="F36" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="G36" s="158" t="s">
+      <c r="G36" s="180" t="s">
         <v>112</v>
       </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="180"/>
       <c r="N36" s="69">
         <v>3</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="37" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="29"/>
       <c r="C37" s="66">
         <v>11</v>
       </c>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="E37" s="206"/>
+      <c r="E37" s="179"/>
       <c r="F37" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="158" t="s">
+      <c r="G37" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
-      <c r="M37" s="158"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
       <c r="N37" s="67">
         <v>3</v>
       </c>
       <c r="O37" s="29"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="38" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="29"/>
       <c r="C38" s="70">
         <v>1</v>
       </c>
-      <c r="D38" s="146" t="s">
+      <c r="D38" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="146"/>
+      <c r="E38" s="182"/>
       <c r="F38" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="147" t="s">
+      <c r="G38" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
       <c r="N38" s="71">
         <v>3</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="29"/>
       <c r="C39" s="72">
         <v>2</v>
       </c>
-      <c r="D39" s="148" t="s">
+      <c r="D39" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="207"/>
+      <c r="E39" s="185"/>
       <c r="F39" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="149" t="s">
+      <c r="G39" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="186"/>
       <c r="N39" s="73">
         <v>3</v>
       </c>
       <c r="O39" s="29"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="40" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="29"/>
       <c r="C40" s="74">
         <v>3</v>
       </c>
-      <c r="D40" s="150" t="s">
+      <c r="D40" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="E40" s="208"/>
+      <c r="E40" s="188"/>
       <c r="F40" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="G40" s="147" t="s">
+      <c r="G40" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
       <c r="N40" s="75">
         <v>3</v>
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="29"/>
       <c r="C41" s="76">
         <v>4</v>
       </c>
-      <c r="D41" s="151" t="s">
+      <c r="D41" s="189" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="207"/>
+      <c r="E41" s="185"/>
       <c r="F41" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="149" t="s">
+      <c r="G41" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
+      <c r="H41" s="186"/>
+      <c r="I41" s="186"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="186"/>
+      <c r="L41" s="186"/>
+      <c r="M41" s="186"/>
       <c r="N41" s="77">
         <v>3</v>
       </c>
       <c r="O41" s="29"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="42" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="29"/>
       <c r="C42" s="70">
         <v>5</v>
       </c>
-      <c r="D42" s="146" t="s">
+      <c r="D42" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="209"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="147" t="s">
+      <c r="G42" s="183" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
       <c r="N42" s="71">
         <v>3</v>
       </c>
       <c r="O42" s="29"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="29"/>
       <c r="C43" s="72">
         <v>6</v>
       </c>
-      <c r="D43" s="148" t="s">
+      <c r="D43" s="184" t="s">
         <v>126</v>
       </c>
-      <c r="E43" s="207"/>
+      <c r="E43" s="185"/>
       <c r="F43" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="149" t="s">
+      <c r="G43" s="186" t="s">
         <v>129</v>
       </c>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="186"/>
+      <c r="K43" s="186"/>
+      <c r="L43" s="186"/>
+      <c r="M43" s="186"/>
       <c r="N43" s="73">
         <v>3</v>
       </c>
       <c r="O43" s="29"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="44" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="29"/>
       <c r="C44" s="74">
         <v>7</v>
       </c>
-      <c r="D44" s="150" t="s">
+      <c r="D44" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="208"/>
+      <c r="E44" s="188"/>
       <c r="F44" s="112" t="s">
         <v>131</v>
       </c>
-      <c r="G44" s="147" t="s">
+      <c r="G44" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="147"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="147"/>
+      <c r="H44" s="183"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
       <c r="N44" s="75">
         <v>3</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="45" spans="1:16" s="59" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="29"/>
       <c r="C45" s="76">
         <v>8</v>
       </c>
-      <c r="D45" s="151" t="s">
+      <c r="D45" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="207"/>
+      <c r="E45" s="185"/>
       <c r="F45" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="G45" s="149" t="s">
+      <c r="G45" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="149"/>
-      <c r="L45" s="149"/>
-      <c r="M45" s="149"/>
+      <c r="H45" s="186"/>
+      <c r="I45" s="186"/>
+      <c r="J45" s="186"/>
+      <c r="K45" s="186"/>
+      <c r="L45" s="186"/>
+      <c r="M45" s="186"/>
       <c r="N45" s="77">
         <v>3</v>
       </c>
       <c r="O45" s="29"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="46" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -3955,7 +3955,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="47" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -3973,14 +3973,14 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.45">
+    <row r="48" spans="1:16" s="59" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="17"/>
       <c r="B48" s="32"/>
-      <c r="C48" s="202" t="s">
+      <c r="C48" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
       <c r="F48" s="27"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3993,7 +3993,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="49" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="32"/>
       <c r="C49" s="33" t="s">
@@ -4003,23 +4003,23 @@
         <v>136</v>
       </c>
       <c r="E49" s="115"/>
-      <c r="F49" s="152" t="s">
+      <c r="F49" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="153" t="s">
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="K49" s="203"/>
-      <c r="L49" s="203"/>
-      <c r="M49" s="203"/>
-      <c r="N49" s="203"/>
+      <c r="K49" s="153"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
+      <c r="N49" s="153"/>
       <c r="O49" s="18"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1">
+    <row r="50" spans="1:16" s="59" customFormat="1" ht="49.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="34"/>
       <c r="C50" s="35">
@@ -4029,23 +4029,23 @@
         <v>139</v>
       </c>
       <c r="E50" s="117"/>
-      <c r="F50" s="154" t="s">
+      <c r="F50" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="154" t="s">
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="190" t="s">
         <v>141</v>
       </c>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="191"/>
       <c r="O50" s="18"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1">
+    <row r="51" spans="1:16" s="59" customFormat="1" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="34"/>
       <c r="C51" s="37">
@@ -4055,23 +4055,23 @@
         <v>142</v>
       </c>
       <c r="E51" s="116"/>
-      <c r="F51" s="156" t="s">
+      <c r="F51" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="156" t="s">
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="K51" s="155"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
-      <c r="N51" s="155"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="191"/>
+      <c r="N51" s="191"/>
       <c r="O51" s="18"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1">
+    <row r="52" spans="1:16" s="59" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="34"/>
       <c r="C52" s="35">
@@ -4081,23 +4081,23 @@
         <v>145</v>
       </c>
       <c r="E52" s="117"/>
-      <c r="F52" s="154" t="s">
+      <c r="F52" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="154" t="s">
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="190" t="s">
         <v>147</v>
       </c>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="191"/>
+      <c r="N52" s="191"/>
       <c r="O52" s="18"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1">
+    <row r="53" spans="1:16" s="59" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="34"/>
       <c r="C53" s="37">
@@ -4107,23 +4107,23 @@
         <v>148</v>
       </c>
       <c r="E53" s="116"/>
-      <c r="F53" s="156" t="s">
+      <c r="F53" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="156" t="s">
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="191"/>
+      <c r="N53" s="191"/>
       <c r="O53" s="18"/>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1">
+    <row r="54" spans="1:16" s="59" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="34"/>
       <c r="C54" s="35">
@@ -4133,23 +4133,23 @@
         <v>151</v>
       </c>
       <c r="E54" s="117"/>
-      <c r="F54" s="154" t="s">
+      <c r="F54" s="190" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="155"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="154" t="s">
+      <c r="G54" s="191"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="190" t="s">
         <v>153</v>
       </c>
-      <c r="K54" s="155"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
-      <c r="N54" s="155"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="191"/>
+      <c r="N54" s="191"/>
       <c r="O54" s="18"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="55" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -4167,7 +4167,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" s="59" customFormat="1" ht="13.9">
+    <row r="56" spans="1:16" s="59" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -4200,19 +4200,56 @@
     <protectedRange algorithmName="SHA-512" hashValue="NcQe0VjxFnxU9SziGkmWOoYUYoQ0T62vv+WqFE1sowJD2+jDiq1RKEMS6wObDPCk433k/JG1CTU3j62rwNOzdg==" saltValue="OlYFZTFPx5QDCqKlqXj8fw==" spinCount="100000" sqref="F21:K21" name="Range1_2_1_6"/>
   </protectedRanges>
   <mergeCells count="77">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:M43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="J54:N54"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="J53:N53"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="J3:K3"/>
@@ -4227,56 +4264,19 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="J54:N54"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="J53:N53"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:M43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:M44"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="L29:L30">
     <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
@@ -4393,7 +4393,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="78"/>
     <col min="2" max="2" width="23.85546875" style="78" customWidth="1"/>
@@ -4406,50 +4406,50 @@
     <col min="9" max="16384" width="8.85546875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="202" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="195"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="196"/>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="198"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A3" s="191" t="s">
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="204"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="205"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="207"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="192"/>
+      <c r="B3" s="201"/>
       <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="188" t="s">
+      <c r="D3" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="190"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="210"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="196"/>
+      <c r="N3" s="196"/>
       <c r="O3" s="100"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="99"/>
       <c r="B4" s="98"/>
       <c r="C4" s="98"/>
@@ -4469,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.45">
+    <row r="5" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="91"/>
       <c r="D5" s="94" t="s">
         <v>155</v>
@@ -4487,7 +4487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="91"/>
       <c r="D6" s="90"/>
       <c r="E6" s="89"/>
@@ -4495,7 +4495,7 @@
       <c r="G6" s="89"/>
       <c r="H6" s="88"/>
     </row>
-    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="7" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="105">
         <v>1</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="8" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="105">
         <v>2</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="9" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="133">
         <v>3</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="10" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="142">
         <v>4</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="11" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="102">
         <v>5</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="12" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="102">
         <v>6</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="13" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="102">
         <v>7</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="H13" s="101"/>
     </row>
-    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="14" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="102">
         <v>8</v>
       </c>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="H14" s="101"/>
     </row>
-    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="15" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>9</v>
       </c>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H15" s="85"/>
     </row>
-    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="16" spans="1:15" s="84" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>10</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1">
+    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="83">
         <v>11</v>
       </c>
@@ -4789,21 +4789,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="26.45">
+    <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
       <c r="G2" s="4"/>
       <c r="H2" s="1" t="s">
         <v>171</v>
@@ -4824,7 +4824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13.9">
+    <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="119"/>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -4844,7 +4844,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="13.9">
+    <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="119"/>
       <c r="D4" s="119"/>
@@ -4864,12 +4864,12 @@
       <c r="S4" s="2"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="184.9">
-      <c r="B5" s="199" t="s">
+    <row r="5" spans="1:20" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="205"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
       <c r="F5" s="10">
         <v>6.1</v>
       </c>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="105.6">
+    <row r="6" spans="1:20" ht="127.5" x14ac:dyDescent="0.2">
       <c r="B6" s="119"/>
       <c r="C6" s="119"/>
       <c r="D6" s="119"/>
@@ -4951,12 +4951,12 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="79.900000000000006">
-      <c r="B7" s="199" t="s">
+    <row r="7" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
       <c r="F7" s="10">
         <v>6.2</v>
       </c>
@@ -5007,12 +5007,12 @@
       </c>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="66.599999999999994">
-      <c r="B8" s="199" t="s">
+    <row r="8" spans="1:20" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="208" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
       <c r="G8" s="4"/>
       <c r="H8" s="9" t="s">
         <v>185</v>
@@ -5040,7 +5040,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="13.15">
+    <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
       <c r="I9" s="10"/>
@@ -5048,7 +5048,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:20" ht="13.15">
+    <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="10"/>
@@ -5057,7 +5057,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:20" ht="13.15">
+    <row r="11" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G11" s="10"/>
       <c r="H11" s="4"/>
       <c r="I11" s="10"/>
@@ -5066,7 +5066,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:20" ht="13.15">
+    <row r="12" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G12" s="10"/>
       <c r="H12" s="4"/>
       <c r="I12" s="10"/>
@@ -5075,10 +5075,10 @@
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:20" ht="13.9">
-      <c r="B13" s="200"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="205"/>
+    <row r="13" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="209"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
       <c r="G13" s="10"/>
       <c r="H13" s="4" t="s">
         <v>205</v>
@@ -5099,12 +5099,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="70.5" customHeight="1">
-      <c r="B14" s="199" t="s">
+    <row r="14" spans="1:20" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="208" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
       <c r="F14" s="10">
         <v>3.1</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="66.75" customHeight="1">
+    <row r="15" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13"/>
       <c r="G15" s="12" t="s">
         <v>217</v>
@@ -5176,7 +5176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="13.15">
+    <row r="16" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -5185,7 +5185,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="13.15">
+    <row r="17" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -5194,12 +5194,12 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:19" ht="251.45">
-      <c r="B18" s="199" t="s">
+    <row r="18" spans="2:19" ht="255" x14ac:dyDescent="0.2">
+      <c r="B18" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
       <c r="F18" s="10">
         <v>3.2</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="132">
+    <row r="19" spans="2:19" ht="127.5" x14ac:dyDescent="0.2">
       <c r="G19" s="10"/>
       <c r="H19" s="9" t="s">
         <v>185</v>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:19" ht="13.15">
+    <row r="20" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G20" s="10"/>
       <c r="H20" s="4"/>
       <c r="I20" s="10"/>
@@ -5271,7 +5271,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:19" ht="13.15">
+    <row r="21" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -5280,7 +5280,7 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:19" ht="13.15">
+    <row r="22" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -5289,7 +5289,7 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="24" spans="2:19" ht="13.15">
+    <row r="24" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H24" s="10" t="s">
         <v>231</v>
       </c>
@@ -5309,12 +5309,12 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="2:19" ht="290.45">
-      <c r="B25" s="200" t="s">
+    <row r="25" spans="2:19" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="209" t="s">
         <v>235</v>
       </c>
-      <c r="C25" s="205"/>
-      <c r="D25" s="205"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
       <c r="G25" s="10" t="s">
         <v>236</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.15">
+    <row r="26" spans="2:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G26" s="10" t="s">
         <v>243</v>
       </c>
@@ -5359,14 +5359,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd38d267-56bb-4e22-b975-199a06fd69fa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d8c712e5-67fc-4595-93cb-a4164dd8eff3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5625,22 +5623,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd38d267-56bb-4e22-b975-199a06fd69fa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d8c712e5-67fc-4595-93cb-a4164dd8eff3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E3095-4F4D-4DD9-BAD5-E276899012AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{873E3095-4F4D-4DD9-BAD5-E276899012AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
+    <ds:schemaRef ds:uri="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB72468-B9EB-412A-8D55-6151E9A308C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D98D897-3D5D-4CF5-A274-8B2E15AE73B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd38d267-56bb-4e22-b975-199a06fd69fa"/>
+    <ds:schemaRef ds:uri="d8c712e5-67fc-4595-93cb-a4164dd8eff3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>